--- a/data/results/raw_model_comparison/DQN_testing.xlsx
+++ b/data/results/raw_model_comparison/DQN_testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Github\Github\Research-project\data\results\raw_model_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027FBFC8-3FC9-427D-A62D-71FA63A97EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A4FBAF-3351-4AA3-A46A-393448189350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,13 +408,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +453,38 @@
       <c r="L1" s="2">
         <v>10</v>
       </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -486,8 +521,38 @@
       <c r="L2" s="3">
         <v>2045850.5530000001</v>
       </c>
+      <c r="M2">
+        <v>2077777.6039563499</v>
+      </c>
+      <c r="N2">
+        <v>1299889.089827256</v>
+      </c>
+      <c r="O2">
+        <v>1831931.490443537</v>
+      </c>
+      <c r="P2">
+        <v>2398477.3009716091</v>
+      </c>
+      <c r="Q2">
+        <v>2457431.301863702</v>
+      </c>
+      <c r="R2">
+        <v>935888.04287778307</v>
+      </c>
+      <c r="S2">
+        <v>2341385.2750639911</v>
+      </c>
+      <c r="T2">
+        <v>2611651.4317320092</v>
+      </c>
+      <c r="U2">
+        <v>1738344.1965679959</v>
+      </c>
+      <c r="V2">
+        <v>3043745.4990403811</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -524,8 +589,38 @@
       <c r="L3" s="3">
         <v>0.26670052500000002</v>
       </c>
+      <c r="M3">
+        <v>0.27319552246481038</v>
+      </c>
+      <c r="N3">
+        <v>9.0486840098330523E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.2213282582508154</v>
+      </c>
+      <c r="P3">
+        <v>0.33500631981547252</v>
+      </c>
+      <c r="Q3">
+        <v>0.34575601393580541</v>
+      </c>
+      <c r="R3">
+        <v>-2.1646131625614681E-2</v>
+      </c>
+      <c r="S3">
+        <v>0.3244261318390993</v>
+      </c>
+      <c r="T3">
+        <v>0.37308292809971322</v>
+      </c>
+      <c r="U3">
+        <v>0.2003582928149894</v>
+      </c>
+      <c r="V3">
+        <v>0.4443012900483243</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -561,6 +656,36 @@
       </c>
       <c r="L4" s="3">
         <v>0.6368556339</v>
+      </c>
+      <c r="M4">
+        <v>0.77926087901354657</v>
+      </c>
+      <c r="N4">
+        <v>0.22310295603550381</v>
+      </c>
+      <c r="O4">
+        <v>0.41262871607050061</v>
+      </c>
+      <c r="P4">
+        <v>0.97773526377681963</v>
+      </c>
+      <c r="Q4">
+        <v>0.89282703341417369</v>
+      </c>
+      <c r="R4">
+        <v>-0.1300086352744057</v>
+      </c>
+      <c r="S4">
+        <v>0.98590854898934233</v>
+      </c>
+      <c r="T4">
+        <v>1.213892890441558</v>
+      </c>
+      <c r="U4">
+        <v>0.5279717441629721</v>
+      </c>
+      <c r="V4">
+        <v>1.130510503050099</v>
       </c>
     </row>
   </sheetData>
